--- a/2em/02-sop/aula09/graficos_simples.xlsx
+++ b/2em/02-sop/aula09/graficos_simples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\welli\sesi2024\2em\02-sop\aula09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265BBA96-0445-4F16-9448-6F5ADB0D28C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E6D7D5-9F72-4C52-80DB-D26E974B975E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{674FE1B2-7A16-4211-8A29-E30F7F3D65D9}"/>
   </bookViews>
@@ -805,6 +805,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-29C2-47F1-9D28-B50445747A90}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -820,6 +825,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-29C2-47F1-9D28-B50445747A90}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -835,6 +845,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-29C2-47F1-9D28-B50445747A90}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -850,6 +865,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-29C2-47F1-9D28-B50445747A90}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -865,6 +885,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-29C2-47F1-9D28-B50445747A90}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2658,15 +2683,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>64852</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>105382</xdr:rowOff>
+      <xdr:colOff>35086</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>27991</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>466118</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>109028</xdr:rowOff>
+      <xdr:colOff>577453</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2694,15 +2719,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>595819</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>97277</xdr:rowOff>
+      <xdr:colOff>601772</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>31792</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>218872</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>80658</xdr:rowOff>
+      <xdr:colOff>279796</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>77391</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2729,16 +2754,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>275617</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>68903</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>31538</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>21278</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>336415</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>24318</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>77391</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3065,8 +3090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8319479-E11F-4A51-B3BB-53E13BD925D8}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
